--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.73698999999999</v>
+        <v>56.683088</v>
       </c>
       <c r="H2">
-        <v>139.47398</v>
+        <v>113.366176</v>
       </c>
       <c r="I2">
-        <v>0.5117461681501637</v>
+        <v>0.702730479879014</v>
       </c>
       <c r="J2">
-        <v>0.4131405980655482</v>
+        <v>0.6133969924212698</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.268986</v>
+        <v>0.706164</v>
       </c>
       <c r="N2">
-        <v>4.537972</v>
+        <v>1.412328</v>
       </c>
       <c r="O2">
-        <v>0.5738397271854517</v>
+        <v>0.7002753842934762</v>
       </c>
       <c r="P2">
-        <v>0.478458430741555</v>
+        <v>0.6389196261107246</v>
       </c>
       <c r="Q2">
-        <v>158.23225399214</v>
+        <v>40.027556154432</v>
       </c>
       <c r="R2">
-        <v>632.92901596856</v>
+        <v>160.110224617728</v>
       </c>
       <c r="S2">
-        <v>0.2936602815194903</v>
+        <v>0.4921048568520155</v>
       </c>
       <c r="T2">
-        <v>0.1976706022260697</v>
+        <v>0.3919113770552407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.73698999999999</v>
+        <v>56.683088</v>
       </c>
       <c r="H3">
-        <v>139.47398</v>
+        <v>113.366176</v>
       </c>
       <c r="I3">
-        <v>0.5117461681501637</v>
+        <v>0.702730479879014</v>
       </c>
       <c r="J3">
-        <v>0.4131405980655482</v>
+        <v>0.6133969924212698</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.581028</v>
       </c>
       <c r="O3">
-        <v>0.0489817843752097</v>
+        <v>0.1920609593924687</v>
       </c>
       <c r="P3">
-        <v>0.06126034825620436</v>
+        <v>0.2628498426143659</v>
       </c>
       <c r="Q3">
-        <v>13.50638127524</v>
+        <v>10.978153751488</v>
       </c>
       <c r="R3">
-        <v>81.03828765143999</v>
+        <v>65.86892250892799</v>
       </c>
       <c r="S3">
-        <v>0.02506624046317112</v>
+        <v>0.1349670901598934</v>
       </c>
       <c r="T3">
-        <v>0.02530913691627203</v>
+        <v>0.1612313029180562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.73698999999999</v>
+        <v>56.683088</v>
       </c>
       <c r="H4">
-        <v>139.47398</v>
+        <v>113.366176</v>
       </c>
       <c r="I4">
-        <v>0.5117461681501637</v>
+        <v>0.702730479879014</v>
       </c>
       <c r="J4">
-        <v>0.4131405980655482</v>
+        <v>0.6133969924212698</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,84 +691,84 @@
         <v>0.217138</v>
       </c>
       <c r="O4">
-        <v>0.02745773016704259</v>
+        <v>0.1076636563140551</v>
       </c>
       <c r="P4">
-        <v>0.02289381836960646</v>
+        <v>0.0982305312749096</v>
       </c>
       <c r="Q4">
-        <v>7.571275267309999</v>
+        <v>6.154026181072</v>
       </c>
       <c r="R4">
-        <v>30.28510106924</v>
+        <v>24.616104724288</v>
       </c>
       <c r="S4">
-        <v>0.0140513881990852</v>
+        <v>0.07565853286710519</v>
       </c>
       <c r="T4">
-        <v>0.009458365813223247</v>
+        <v>0.06025431244797303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.73698999999999</v>
+        <v>18.04617333333333</v>
       </c>
       <c r="H5">
-        <v>139.47398</v>
+        <v>54.13852</v>
       </c>
       <c r="I5">
-        <v>0.5117461681501637</v>
+        <v>0.2237280376558383</v>
       </c>
       <c r="J5">
-        <v>0.4131405980655482</v>
+        <v>0.2929304534549949</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.382810333333333</v>
+        <v>0.706164</v>
       </c>
       <c r="N5">
-        <v>4.148431</v>
+        <v>1.412328</v>
       </c>
       <c r="O5">
-        <v>0.3497207582722959</v>
+        <v>0.7002753842934762</v>
       </c>
       <c r="P5">
-        <v>0.4373874026326341</v>
+        <v>0.6389196261107246</v>
       </c>
       <c r="Q5">
-        <v>96.43303038756333</v>
+        <v>12.74355794576</v>
       </c>
       <c r="R5">
-        <v>578.59818232538</v>
+        <v>76.46134767456</v>
       </c>
       <c r="S5">
-        <v>0.1789682579684171</v>
+        <v>0.1566712375466675</v>
       </c>
       <c r="T5">
-        <v>0.1807024931099832</v>
+        <v>0.1871590157979104</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>54.13852</v>
       </c>
       <c r="I6">
-        <v>0.1324269953880573</v>
+        <v>0.2237280376558383</v>
       </c>
       <c r="J6">
-        <v>0.1603655429577879</v>
+        <v>0.2929304534549949</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.268986</v>
+        <v>0.193676</v>
       </c>
       <c r="N6">
-        <v>4.537972</v>
+        <v>0.581028</v>
       </c>
       <c r="O6">
-        <v>0.5738397271854517</v>
+        <v>0.1920609593924687</v>
       </c>
       <c r="P6">
-        <v>0.478458430741555</v>
+        <v>0.2628498426143659</v>
       </c>
       <c r="Q6">
-        <v>40.94651464690666</v>
+        <v>3.495110666506666</v>
       </c>
       <c r="R6">
-        <v>245.67908788144</v>
+        <v>31.45599599856</v>
       </c>
       <c r="S6">
-        <v>0.07599187090547189</v>
+        <v>0.04296942155517468</v>
       </c>
       <c r="T6">
-        <v>0.07672824602860062</v>
+        <v>0.07699672358760025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>54.13852</v>
       </c>
       <c r="I7">
-        <v>0.1324269953880573</v>
+        <v>0.2237280376558383</v>
       </c>
       <c r="J7">
-        <v>0.1603655429577879</v>
+        <v>0.2929304534549949</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.193676</v>
+        <v>0.108569</v>
       </c>
       <c r="N7">
-        <v>0.581028</v>
+        <v>0.217138</v>
       </c>
       <c r="O7">
-        <v>0.0489817843752097</v>
+        <v>0.1076636563140551</v>
       </c>
       <c r="P7">
-        <v>0.06126034825620436</v>
+        <v>0.0982305312749096</v>
       </c>
       <c r="Q7">
-        <v>3.495110666506666</v>
+        <v>1.959254992626666</v>
       </c>
       <c r="R7">
-        <v>31.45599599856</v>
+        <v>11.75552995576</v>
       </c>
       <c r="S7">
-        <v>0.006486510533554713</v>
+        <v>0.02408737855399616</v>
       </c>
       <c r="T7">
-        <v>0.009824049009889386</v>
+        <v>0.02877471406948433</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.04617333333333</v>
+        <v>4.070884666666667</v>
       </c>
       <c r="H8">
-        <v>54.13852</v>
+        <v>12.212654</v>
       </c>
       <c r="I8">
-        <v>0.1324269953880573</v>
+        <v>0.05046892885120844</v>
       </c>
       <c r="J8">
-        <v>0.1603655429577879</v>
+        <v>0.06607972057804605</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,42 +933,42 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.108569</v>
+        <v>0.706164</v>
       </c>
       <c r="N8">
-        <v>0.217138</v>
+        <v>1.412328</v>
       </c>
       <c r="O8">
-        <v>0.02745773016704259</v>
+        <v>0.7002753842934762</v>
       </c>
       <c r="P8">
-        <v>0.02289381836960646</v>
+        <v>0.6389196261107246</v>
       </c>
       <c r="Q8">
-        <v>1.959254992626666</v>
+        <v>2.874712199752</v>
       </c>
       <c r="R8">
-        <v>11.75552995576</v>
+        <v>17.248273198512</v>
       </c>
       <c r="S8">
-        <v>0.003636144706197472</v>
+        <v>0.0353421485461601</v>
       </c>
       <c r="T8">
-        <v>0.003671379613218918</v>
+        <v>0.04221963036522634</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.04617333333333</v>
+        <v>4.070884666666667</v>
       </c>
       <c r="H9">
-        <v>54.13852</v>
+        <v>12.212654</v>
       </c>
       <c r="I9">
-        <v>0.1324269953880573</v>
+        <v>0.05046892885120844</v>
       </c>
       <c r="J9">
-        <v>0.1603655429577879</v>
+        <v>0.06607972057804605</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.382810333333333</v>
+        <v>0.193676</v>
       </c>
       <c r="N9">
-        <v>4.148431</v>
+        <v>0.581028</v>
       </c>
       <c r="O9">
-        <v>0.3497207582722959</v>
+        <v>0.1920609593924687</v>
       </c>
       <c r="P9">
-        <v>0.4373874026326341</v>
+        <v>0.2628498426143659</v>
       </c>
       <c r="Q9">
-        <v>24.95443496245778</v>
+        <v>0.7884326587013334</v>
       </c>
       <c r="R9">
-        <v>224.58991466212</v>
+        <v>7.095893928312</v>
       </c>
       <c r="S9">
-        <v>0.04631246924283324</v>
+        <v>0.009693110894673338</v>
       </c>
       <c r="T9">
-        <v>0.07014186830607895</v>
+        <v>0.01736904415394068</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.055494</v>
+        <v>4.070884666666667</v>
       </c>
       <c r="H10">
-        <v>6.166482</v>
+        <v>12.212654</v>
       </c>
       <c r="I10">
-        <v>0.01508369056587691</v>
+        <v>0.05046892885120844</v>
       </c>
       <c r="J10">
-        <v>0.01826594509915353</v>
+        <v>0.06607972057804605</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>2.268986</v>
+        <v>0.108569</v>
       </c>
       <c r="N10">
-        <v>4.537972</v>
+        <v>0.217138</v>
       </c>
       <c r="O10">
-        <v>0.5738397271854517</v>
+        <v>0.1076636563140551</v>
       </c>
       <c r="P10">
-        <v>0.478458430741555</v>
+        <v>0.0982305312749096</v>
       </c>
       <c r="Q10">
-        <v>4.663887109084</v>
+        <v>0.4419718773753334</v>
       </c>
       <c r="R10">
-        <v>27.983322654504</v>
+        <v>2.651831264252</v>
       </c>
       <c r="S10">
-        <v>0.008655620879272579</v>
+        <v>0.005433669410375007</v>
       </c>
       <c r="T10">
-        <v>0.008739495428152399</v>
+        <v>0.00649104605887904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.055494</v>
+        <v>0.483556</v>
       </c>
       <c r="H11">
-        <v>6.166482</v>
+        <v>0.967112</v>
       </c>
       <c r="I11">
-        <v>0.01508369056587691</v>
+        <v>0.005994901687931619</v>
       </c>
       <c r="J11">
-        <v>0.01826594509915353</v>
+        <v>0.005232809406348142</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.193676</v>
+        <v>0.706164</v>
       </c>
       <c r="N11">
-        <v>0.581028</v>
+        <v>1.412328</v>
       </c>
       <c r="O11">
-        <v>0.0489817843752097</v>
+        <v>0.7002753842934762</v>
       </c>
       <c r="P11">
-        <v>0.06126034825620436</v>
+        <v>0.6389196261107246</v>
       </c>
       <c r="Q11">
-        <v>0.3980998559439999</v>
+        <v>0.341469839184</v>
       </c>
       <c r="R11">
-        <v>3.582898703496</v>
+        <v>1.365879356736</v>
       </c>
       <c r="S11">
-        <v>0.0007388260788801677</v>
+        <v>0.004198082083317924</v>
       </c>
       <c r="T11">
-        <v>0.001118978158002855</v>
+        <v>0.003343344629412638</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.055494</v>
+        <v>0.483556</v>
       </c>
       <c r="H12">
-        <v>6.166482</v>
+        <v>0.967112</v>
       </c>
       <c r="I12">
-        <v>0.01508369056587691</v>
+        <v>0.005994901687931619</v>
       </c>
       <c r="J12">
-        <v>0.01826594509915353</v>
+        <v>0.005232809406348142</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.108569</v>
+        <v>0.193676</v>
       </c>
       <c r="N12">
-        <v>0.217138</v>
+        <v>0.581028</v>
       </c>
       <c r="O12">
-        <v>0.02745773016704259</v>
+        <v>0.1920609593924687</v>
       </c>
       <c r="P12">
-        <v>0.02289381836960646</v>
+        <v>0.2628498426143659</v>
       </c>
       <c r="Q12">
-        <v>0.223162928086</v>
+        <v>0.09365319185599999</v>
       </c>
       <c r="R12">
-        <v>1.338977568516</v>
+        <v>0.561919151136</v>
       </c>
       <c r="S12">
-        <v>0.0004141639054810143</v>
+        <v>0.001151386569647677</v>
       </c>
       <c r="T12">
-        <v>0.0004181772294492243</v>
+        <v>0.001375443128889583</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.055494</v>
+        <v>0.483556</v>
       </c>
       <c r="H13">
-        <v>6.166482</v>
+        <v>0.967112</v>
       </c>
       <c r="I13">
-        <v>0.01508369056587691</v>
+        <v>0.005994901687931619</v>
       </c>
       <c r="J13">
-        <v>0.01826594509915353</v>
+        <v>0.005232809406348142</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>1.382810333333333</v>
+        <v>0.108569</v>
       </c>
       <c r="N13">
-        <v>4.148431</v>
+        <v>0.217138</v>
       </c>
       <c r="O13">
-        <v>0.3497207582722959</v>
+        <v>0.1076636563140551</v>
       </c>
       <c r="P13">
-        <v>0.4373874026326341</v>
+        <v>0.0982305312749096</v>
       </c>
       <c r="Q13">
-        <v>2.842358343304667</v>
+        <v>0.052499191364</v>
       </c>
       <c r="R13">
-        <v>25.581225089742</v>
+        <v>0.209996765456</v>
       </c>
       <c r="S13">
-        <v>0.005275079702243151</v>
+        <v>0.0006454330349660188</v>
       </c>
       <c r="T13">
-        <v>0.007989294283549058</v>
+        <v>0.0005140216480459224</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.4863965</v>
+        <v>0.6385343333333333</v>
       </c>
       <c r="H14">
-        <v>2.972793</v>
+        <v>1.915603</v>
       </c>
       <c r="I14">
-        <v>0.01090752143484849</v>
+        <v>0.007916250760413046</v>
       </c>
       <c r="J14">
-        <v>0.008805810789547093</v>
+        <v>0.01036486507997907</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>2.268986</v>
+        <v>0.706164</v>
       </c>
       <c r="N14">
-        <v>4.537972</v>
+        <v>1.412328</v>
       </c>
       <c r="O14">
-        <v>0.5738397271854517</v>
+        <v>0.7002753842934762</v>
       </c>
       <c r="P14">
-        <v>0.478458430741555</v>
+        <v>0.6389196261107246</v>
       </c>
       <c r="Q14">
-        <v>3.372612848949</v>
+        <v>0.450909958964</v>
       </c>
       <c r="R14">
-        <v>13.490451395796</v>
+        <v>2.705459753784</v>
       </c>
       <c r="S14">
-        <v>0.006259169124442926</v>
+        <v>0.00554355554341177</v>
       </c>
       <c r="T14">
-        <v>0.004213214411773756</v>
+        <v>0.006622315721588335</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.4863965</v>
+        <v>0.6385343333333333</v>
       </c>
       <c r="H15">
-        <v>2.972793</v>
+        <v>1.915603</v>
       </c>
       <c r="I15">
-        <v>0.01090752143484849</v>
+        <v>0.007916250760413046</v>
       </c>
       <c r="J15">
-        <v>0.008805810789547093</v>
+        <v>0.01036486507997907</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,27 +1373,27 @@
         <v>0.581028</v>
       </c>
       <c r="O15">
-        <v>0.0489817843752097</v>
+        <v>0.1920609593924687</v>
       </c>
       <c r="P15">
-        <v>0.06126034825620436</v>
+        <v>0.2628498426143659</v>
       </c>
       <c r="Q15">
-        <v>0.287879328534</v>
+        <v>0.1236687755426667</v>
       </c>
       <c r="R15">
-        <v>1.727275971204</v>
+        <v>1.113018979884</v>
       </c>
       <c r="S15">
-        <v>0.0005342698629897267</v>
+        <v>0.00152040271583629</v>
       </c>
       <c r="T15">
-        <v>0.0005394470356458968</v>
+        <v>0.002724403154991636</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.4863965</v>
+        <v>0.6385343333333333</v>
       </c>
       <c r="H16">
-        <v>2.972793</v>
+        <v>1.915603</v>
       </c>
       <c r="I16">
-        <v>0.01090752143484849</v>
+        <v>0.007916250760413046</v>
       </c>
       <c r="J16">
-        <v>0.008805810789547093</v>
+        <v>0.01036486507997907</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1435,27 +1435,27 @@
         <v>0.217138</v>
       </c>
       <c r="O16">
-        <v>0.02745773016704259</v>
+        <v>0.1076636563140551</v>
       </c>
       <c r="P16">
-        <v>0.02289381836960646</v>
+        <v>0.0982305312749096</v>
       </c>
       <c r="Q16">
-        <v>0.1613765816085</v>
+        <v>0.06932503403566666</v>
       </c>
       <c r="R16">
-        <v>0.6455063264340001</v>
+        <v>0.415950204214</v>
       </c>
       <c r="S16">
-        <v>0.0002994957803493032</v>
+        <v>0.0008522925011649878</v>
       </c>
       <c r="T16">
-        <v>0.000201598632813012</v>
+        <v>0.001018146203399103</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.4863965</v>
+        <v>0.7389696666666667</v>
       </c>
       <c r="H17">
-        <v>2.972793</v>
+        <v>2.216909</v>
       </c>
       <c r="I17">
-        <v>0.01090752143484849</v>
+        <v>0.009161401165594609</v>
       </c>
       <c r="J17">
-        <v>0.008805810789547093</v>
+        <v>0.01199515905936216</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>1.382810333333333</v>
+        <v>0.706164</v>
       </c>
       <c r="N17">
-        <v>4.148431</v>
+        <v>1.412328</v>
       </c>
       <c r="O17">
-        <v>0.3497207582722959</v>
+        <v>0.7002753842934762</v>
       </c>
       <c r="P17">
-        <v>0.4373874026326341</v>
+        <v>0.6389196261107246</v>
       </c>
       <c r="Q17">
-        <v>2.0554044396305</v>
+        <v>0.5218337756920001</v>
       </c>
       <c r="R17">
-        <v>12.332426637783</v>
+        <v>3.131002654152</v>
       </c>
       <c r="S17">
-        <v>0.003814586667066536</v>
+        <v>0.006415503721903466</v>
       </c>
       <c r="T17">
-        <v>0.003851550709314428</v>
+        <v>0.007663942541346341</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.02957033333334</v>
+        <v>0.7389696666666667</v>
       </c>
       <c r="H18">
-        <v>126.088711</v>
+        <v>2.216909</v>
       </c>
       <c r="I18">
-        <v>0.3084227117786577</v>
+        <v>0.009161401165594609</v>
       </c>
       <c r="J18">
-        <v>0.3734916396008351</v>
+        <v>0.01199515905936216</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>2.268986</v>
+        <v>0.193676</v>
       </c>
       <c r="N18">
-        <v>4.537972</v>
+        <v>0.581028</v>
       </c>
       <c r="O18">
-        <v>0.5738397271854517</v>
+        <v>0.1920609593924687</v>
       </c>
       <c r="P18">
-        <v>0.478458430741555</v>
+        <v>0.2628498426143659</v>
       </c>
       <c r="Q18">
-        <v>95.36450667234868</v>
+        <v>0.1431206891613333</v>
       </c>
       <c r="R18">
-        <v>572.1870400340921</v>
+        <v>1.288086202452</v>
       </c>
       <c r="S18">
-        <v>0.1769852047848622</v>
+        <v>0.001759547497243382</v>
       </c>
       <c r="T18">
-        <v>0.178700223778506</v>
+        <v>0.003152925670887628</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.02957033333334</v>
+        <v>0.7389696666666667</v>
       </c>
       <c r="H19">
-        <v>126.088711</v>
+        <v>2.216909</v>
       </c>
       <c r="I19">
-        <v>0.3084227117786577</v>
+        <v>0.009161401165594609</v>
       </c>
       <c r="J19">
-        <v>0.3734916396008351</v>
+        <v>0.01199515905936216</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>0.193676</v>
+        <v>0.108569</v>
       </c>
       <c r="N19">
-        <v>0.581028</v>
+        <v>0.217138</v>
       </c>
       <c r="O19">
-        <v>0.0489817843752097</v>
+        <v>0.1076636563140551</v>
       </c>
       <c r="P19">
-        <v>0.06126034825620436</v>
+        <v>0.0982305312749096</v>
       </c>
       <c r="Q19">
-        <v>8.140119063878668</v>
+        <v>0.08022919774033334</v>
       </c>
       <c r="R19">
-        <v>73.26107157490802</v>
+        <v>0.4813751864420001</v>
       </c>
       <c r="S19">
-        <v>0.01510709476475966</v>
+        <v>0.000986349946447762</v>
       </c>
       <c r="T19">
-        <v>0.02288022791272793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>42.02957033333334</v>
-      </c>
-      <c r="H20">
-        <v>126.088711</v>
-      </c>
-      <c r="I20">
-        <v>0.3084227117786577</v>
-      </c>
-      <c r="J20">
-        <v>0.3734916396008351</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
-      </c>
-      <c r="M20">
-        <v>0.108569</v>
-      </c>
-      <c r="N20">
-        <v>0.217138</v>
-      </c>
-      <c r="O20">
-        <v>0.02745773016704259</v>
-      </c>
-      <c r="P20">
-        <v>0.02289381836960646</v>
-      </c>
-      <c r="Q20">
-        <v>4.563108421519667</v>
-      </c>
-      <c r="R20">
-        <v>27.378650529118</v>
-      </c>
-      <c r="S20">
-        <v>0.008468587597405933</v>
-      </c>
-      <c r="T20">
-        <v>0.008550649759588034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>42.02957033333334</v>
-      </c>
-      <c r="H21">
-        <v>126.088711</v>
-      </c>
-      <c r="I21">
-        <v>0.3084227117786577</v>
-      </c>
-      <c r="J21">
-        <v>0.3734916396008351</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.382810333333333</v>
-      </c>
-      <c r="N21">
-        <v>4.148431</v>
-      </c>
-      <c r="O21">
-        <v>0.3497207582722959</v>
-      </c>
-      <c r="P21">
-        <v>0.4373874026326341</v>
-      </c>
-      <c r="Q21">
-        <v>58.11892416249346</v>
-      </c>
-      <c r="R21">
-        <v>523.0703174624412</v>
-      </c>
-      <c r="S21">
-        <v>0.10786182463163</v>
-      </c>
-      <c r="T21">
-        <v>0.1633605381500131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.917993666666666</v>
-      </c>
-      <c r="H22">
-        <v>8.753981</v>
-      </c>
-      <c r="I22">
-        <v>0.02141291268239585</v>
-      </c>
-      <c r="J22">
-        <v>0.02593046348712818</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.268986</v>
-      </c>
-      <c r="N22">
-        <v>4.537972</v>
-      </c>
-      <c r="O22">
-        <v>0.5738397271854517</v>
-      </c>
-      <c r="P22">
-        <v>0.478458430741555</v>
-      </c>
-      <c r="Q22">
-        <v>6.620886777755333</v>
-      </c>
-      <c r="R22">
-        <v>39.725320666532</v>
-      </c>
-      <c r="S22">
-        <v>0.01228757997191193</v>
-      </c>
-      <c r="T22">
-        <v>0.01240664886845254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.917993666666666</v>
-      </c>
-      <c r="H23">
-        <v>8.753981</v>
-      </c>
-      <c r="I23">
-        <v>0.02141291268239585</v>
-      </c>
-      <c r="J23">
-        <v>0.02593046348712818</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.193676</v>
-      </c>
-      <c r="N23">
-        <v>0.581028</v>
-      </c>
-      <c r="O23">
-        <v>0.0489817843752097</v>
-      </c>
-      <c r="P23">
-        <v>0.06126034825620436</v>
-      </c>
-      <c r="Q23">
-        <v>0.5651453413853332</v>
-      </c>
-      <c r="R23">
-        <v>5.086308072467999</v>
-      </c>
-      <c r="S23">
-        <v>0.001048842671854307</v>
-      </c>
-      <c r="T23">
-        <v>0.001588509223666264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.917993666666666</v>
-      </c>
-      <c r="H24">
-        <v>8.753981</v>
-      </c>
-      <c r="I24">
-        <v>0.02141291268239585</v>
-      </c>
-      <c r="J24">
-        <v>0.02593046348712818</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.5</v>
-      </c>
-      <c r="M24">
-        <v>0.108569</v>
-      </c>
-      <c r="N24">
-        <v>0.217138</v>
-      </c>
-      <c r="O24">
-        <v>0.02745773016704259</v>
-      </c>
-      <c r="P24">
-        <v>0.02289381836960646</v>
-      </c>
-      <c r="Q24">
-        <v>0.3168036543963333</v>
-      </c>
-      <c r="R24">
-        <v>1.900821926378</v>
-      </c>
-      <c r="S24">
-        <v>0.0005879499785236695</v>
-      </c>
-      <c r="T24">
-        <v>0.0005936473213140246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.917993666666666</v>
-      </c>
-      <c r="H25">
-        <v>8.753981</v>
-      </c>
-      <c r="I25">
-        <v>0.02141291268239585</v>
-      </c>
-      <c r="J25">
-        <v>0.02593046348712818</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.382810333333333</v>
-      </c>
-      <c r="N25">
-        <v>4.148431</v>
-      </c>
-      <c r="O25">
-        <v>0.3497207582722959</v>
-      </c>
-      <c r="P25">
-        <v>0.4373874026326341</v>
-      </c>
-      <c r="Q25">
-        <v>4.035031794867889</v>
-      </c>
-      <c r="R25">
-        <v>36.315286153811</v>
-      </c>
-      <c r="S25">
-        <v>0.007488540060105939</v>
-      </c>
-      <c r="T25">
-        <v>0.01134165807369535</v>
+        <v>0.00117829084712819</v>
       </c>
     </row>
   </sheetData>
